--- a/biology/Médecine/Rayonnement_thermique_(maladie_professionnelle)/Rayonnement_thermique_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Rayonnement_thermique_(maladie_professionnelle)/Rayonnement_thermique_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection oculaire soit provoquée par le rayonnement thermique (rayonnement infrarouge) soit reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère plus juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
